--- a/INTLINE/data/548/DSM/tab1Msia_historical.xlsx
+++ b/INTLINE/data/548/DSM/tab1Msia_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JK5"/>
+  <dimension ref="A1:JL5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,6 +1717,11 @@
           <t>2022-04</t>
         </is>
       </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2534,6 +2539,9 @@
       <c r="JK2" t="n">
         <v>103.8</v>
       </c>
+      <c r="JL2" t="n">
+        <v>104.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3351,6 +3359,9 @@
       <c r="JK3" t="n">
         <v>94.90000000000001</v>
       </c>
+      <c r="JL3" t="n">
+        <v>95.09999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4168,6 +4179,9 @@
       <c r="JK4" t="n">
         <v>127.4</v>
       </c>
+      <c r="JL4" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4984,6 +4998,9 @@
       </c>
       <c r="JK5" t="n">
         <v>130.3</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
